--- a/medicine/Psychotrope/Vins_de_Tarn-et-Garonne/Vins_de_Tarn-et-Garonne.xlsx
+++ b/medicine/Psychotrope/Vins_de_Tarn-et-Garonne/Vins_de_Tarn-et-Garonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vins du département de Tarn-et-Garonne se composent de six appellations AOC et IGP.
 </t>
@@ -511,9 +523,11 @@
           <t>Importance du vignoble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le département compte en totalité 1 855 hectares de vignes qui produisent des AOC et des Vins de Pays[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le département compte en totalité 1 855 hectares de vignes qui produisent des AOC et des Vins de Pays.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fronton (AOC)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette appellation des départements de Tarn-et-Garonne et de la Haute-Garonne, rattachée à la région Sud-Ouest, produit des vins rouges et rosés à partir d'un cépage local : la négrette. Lorsqu'il est implanté sur un beau terroir, ce cépage donne un vin rouge puissant, noir, tannique et de bonne garde possédant une réelle personnalité marquée par des arômes de violette et de réglisse. On lui adjoint de nombreux autres cépages pour un pourcentage qui ne peut dépasser 25 % ; parmi ceux-ci : les cabernets, la syrah, le fer servadou, le côt et de manière plus confidentielle le gamay, le cinsault et le mauzac.
 Les vins issus de ces assemblages sont en général plus fruités, plus souples et à boire jeunes.
@@ -577,7 +593,9 @@
           <t>Saint Sardos (AOC)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé au Sud-Ouest du Tarn et Garonne, le Vignoble de Saint-Sardos s'étend sur 20 communes de Tarn-et-Garonne (Beaumont-de-Lomagne, Beaupuy, Belbèse, Bouillac, Bourret, Comberouger, Cordes-Tolosannes, Escazeaux, Faudoas, Gariès, Labourgade, Lafitte, Larrazet, Mas-Grenier, Montaïn, Saint-Sardos, Savenès, Sérignac, Verdun-sur-Garonne, Vigueron) et 3 Communes en Haute Garonne. L'origine du vignoble remonte au XIIe siècle.
 Les vins rouges et rosés de Saint-Sardos proviennent des cépages suivants :
@@ -615,7 +633,9 @@
           <t>Lavilledieu (IGP)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Décret du 15 octobre 1947, superficie de 150 ha, production de 6 000 hl environ.
 Le vignoble de Lavilledieu reconnu V.D.Q.S depuis 1947 couvre environ 150 ha, sur 13 communes, entre Montauban et Castelsarrasin (La Ville-Dieu-du-Temple, Meauzac, Barry-d'Islemade, Albefeuille-Lagarde, Montbeton, Lacourt-Saint-Pierre, Bressols, Montech, Escatalens, Saint-Porquier, Castelsarrasin, Les Barthes, Labastide-du-Temple)
@@ -656,7 +676,9 @@
           <t>Brulhois (AOC, anciennement AOVDQS)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Terroir étalé sur des coteaux ou en terrasses très caillouteux en bordure de la Garonne. La production représente près de 11 000 hl dont la particularité est d’offrir des arômes de fruits rouges et noirs.
 Le meilleur exemple est le vin noir du Brulhois, élaboré avec les cépages Tannat, Cabernet-franc, Cabernet-sauvignon, Merlot, Côt et Fer Servadou. Ce sont des vins charnus et généreux et sont excellents en accompagnement de la cuisine traditionnelle de la Gascogne.
@@ -695,7 +717,9 @@
           <t>Coteaux et terrasses de Montauban (IGP)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cépages autorisés, à l’exclusion de tout autre :
 Gamay, Merlot, Syrah, Cabernet Franc, Cabernet-Sauvignon, Tannat ; Chardonnay, Muscadelle, Sauvignon, Semillon, Ugni Blanc, Gamay Teinturier de Bouze, Gamay Teinturier de Chaudenay, ces deux derniers cépages ne pouvant représenter au maximum que 30 p. 100 de l’encépagement des parcelles produisant ces vins ;
@@ -727,7 +751,9 @@
           <t>Coteaux du Quercy (AOC)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La production du rouge et du rosé s’étend sur 15 communes viticoles du département du Lot et 18 communes sur le département de Tarn-et-Garonne.
 Les rosés sont fruités et doivent être dégustés jeunes. Les rouges sont en général très aromatiques, offrent des tanins bien marqués et des notes de fruits rouges, de fleurs, d'épices. Ils atteignent leur plénitude entre 3 et 5 ans mais peuvent être de bonne garde.
@@ -759,7 +785,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>INAO [source insuffisante]</t>
         </is>
